--- a/trunk/toolbox_data/parsers/sharkweb_zooplankton_parser.xlsx
+++ b/trunk/toolbox_data/parsers/sharkweb_zooplankton_parser.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="0" windowWidth="28800" windowHeight="21700" tabRatio="500"/>
+    <workbookView xWindow="2720" yWindow="0" windowWidth="28800" windowHeight="21700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="pp_import_matrix.txt" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>sample_max_depth</t>
   </si>
   <si>
-    <t>taxon_name</t>
-  </si>
-  <si>
     <t>class</t>
   </si>
   <si>
@@ -222,9 +219,6 @@
     <t>$Text('Art-flagga')</t>
   </si>
   <si>
-    <t>Sharkweb swedish</t>
-  </si>
-  <si>
     <t>Export swedish</t>
   </si>
   <si>
@@ -258,9 +252,6 @@
     <t>$Text('Rapporterat taxon-namn')</t>
   </si>
   <si>
-    <t>reported_taxon_name</t>
-  </si>
-  <si>
     <t>$Text('Taxon-id')</t>
   </si>
   <si>
@@ -279,9 +270,6 @@
     <t>$Text('Familj')</t>
   </si>
   <si>
-    <t>taxon_id</t>
-  </si>
-  <si>
     <t>kingdom</t>
   </si>
   <si>
@@ -309,9 +297,6 @@
     <t>dataset</t>
   </si>
   <si>
-    <t>data_type</t>
-  </si>
-  <si>
     <t>Datatyp</t>
   </si>
   <si>
@@ -324,18 +309,12 @@
     <t>$Date('Provtagningsdatum')[5:7]</t>
   </si>
   <si>
-    <t>Månad (test)</t>
-  </si>
-  <si>
     <t>quality_flag</t>
   </si>
   <si>
     <t>Export english</t>
   </si>
   <si>
-    <t>Sharkweb english</t>
-  </si>
-  <si>
     <t>Data type</t>
   </si>
   <si>
@@ -432,9 +411,6 @@
     <t>$Date('Sampling date')[5:7]</t>
   </si>
   <si>
-    <t>Month (TEST)</t>
-  </si>
-  <si>
     <t>$Text('Parent taxa')</t>
   </si>
   <si>
@@ -538,6 +514,30 @@
   </si>
   <si>
     <t>$Text(u'Föräldrataxa')</t>
+  </si>
+  <si>
+    <t>SHARKweb english</t>
+  </si>
+  <si>
+    <t>SHARKweb swedish</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Månad</t>
+  </si>
+  <si>
+    <t>datatype_code</t>
+  </si>
+  <si>
+    <t>scientific_name</t>
+  </si>
+  <si>
+    <t>reported_scientific_name</t>
+  </si>
+  <si>
+    <t>dyntaxa_id</t>
   </si>
 </sst>
 </file>
@@ -599,8 +599,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="275">
+  <cellStyleXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -881,7 +891,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="275">
+  <cellStyles count="285">
     <cellStyle name="Följd hyperlänk" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="6" builtinId="9" hidden="1"/>
@@ -1019,6 +1029,11 @@
     <cellStyle name="Följd hyperlänk" xfId="270" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="272" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="284" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="5" builtinId="8" hidden="1"/>
@@ -1156,6 +1171,11 @@
     <cellStyle name="Hyperlänk" xfId="269" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="271" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="283" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1487,8 +1507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1512,72 +1532,72 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>166</v>
       </c>
       <c r="G1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1591,7 +1611,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1605,7 +1625,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -1613,39 +1633,39 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" t="s">
         <v>98</v>
       </c>
-      <c r="G10" t="s">
-        <v>105</v>
-      </c>
       <c r="H10" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1656,19 +1676,19 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E12" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1682,16 +1702,16 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G13" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1699,22 +1719,22 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G14" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="H14" t="s">
-        <v>101</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1725,19 +1745,19 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1748,19 +1768,19 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G16" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1771,19 +1791,19 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G17" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1791,22 +1811,22 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E18" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G18" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="H18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1817,19 +1837,19 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E20" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1840,19 +1860,19 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G21" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1860,22 +1880,22 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="H22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1883,22 +1903,22 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" t="s">
         <v>159</v>
       </c>
-      <c r="E24" t="s">
-        <v>167</v>
-      </c>
       <c r="G24" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1906,22 +1926,22 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G25" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1929,22 +1949,22 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G26" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1952,22 +1972,22 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E27" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="G27" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1975,10 +1995,10 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
         <v>2</v>
@@ -1987,10 +2007,10 @@
         <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1998,22 +2018,22 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E29" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2021,22 +2041,22 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
         <v>25</v>
       </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
       <c r="D30" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E30" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2044,22 +2064,22 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2067,22 +2087,22 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G32" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2090,22 +2110,22 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2113,22 +2133,22 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E35" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2136,22 +2156,22 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E36" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2159,22 +2179,22 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D37" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2182,22 +2202,22 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D38" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E38" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2205,22 +2225,22 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E39" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2228,22 +2248,22 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E40" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2251,22 +2271,22 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E41" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G41" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="H41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2274,22 +2294,22 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E42" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G42" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
